--- a/SpaOnline/EventStorming/Notificacion - Event Storming.xlsx
+++ b/SpaOnline/EventStorming/Notificacion - Event Storming.xlsx
@@ -5,19 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO GIT/SpaOnline/EventStorming/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="424" documentId="13_ncr:1_{62893FD2-C189-4ED0-931F-1A498DF7C6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82B417AF-2B17-4840-BA41-E7D6E0644C8E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9D24CD-F1E2-4809-8929-6C9C00AF34B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="5" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
     <sheet name="Listado Objetos de Dominio" sheetId="67" r:id="rId2"/>
     <sheet name="Notificacion" sheetId="66" r:id="rId3"/>
-    <sheet name="TipoNotificacion" sheetId="24" r:id="rId4"/>
+    <sheet name="ListaNotificacion" sheetId="68" r:id="rId4"/>
+    <sheet name="TipoNotificacion" sheetId="24" r:id="rId5"/>
+    <sheet name="Cliente" sheetId="70" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$3:$B$7</definedName>
   </definedNames>
@@ -77,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="134">
   <si>
     <t>Descripción</t>
   </si>
@@ -175,36 +180,10 @@
     <t>TipoNotificacion</t>
   </si>
   <si>
-    <t>Pagos</t>
-  </si>
-  <si>
-    <t>Servicio</t>
-  </si>
-  <si>
     <t>Contexto que contiene la informacion de Notificacion, relacionando un tipo de notificacion para la clasificacion sobre los pagos o si es notificacion de un servicio  en promoción</t>
   </si>
   <si>
-    <t xml:space="preserve">Objeto de dominio que contiene todo lo relacionado con la notificacion de la empresa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objeto de dominio que contiene todo lo relacionado con el tipo de notificaciones que tiene el establecimiento </t>
-  </si>
-  <si>
-    <t>Objeto de dominio que contiene todo lo relacionado con los pagos de la empresa</t>
-  </si>
-  <si>
-    <t>Objeto de dominio que contiene todo lo relacionado con los servicios que ofrece la empresa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No debe existir otra Notificacion con el mismo identificador
- </t>
-  </si>
-  <si>
     <t>Pol-Notificacion-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los datos nuevos de Notificacion  deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango
- </t>
   </si>
   <si>
     <t>Pol-Notificacion-002</t>
@@ -217,9 +196,6 @@
  Creada</t>
   </si>
   <si>
-    <t>Notificacion Consultado</t>
-  </si>
-  <si>
     <t>Administrador General</t>
   </si>
   <si>
@@ -229,25 +205,7 @@
     <t>Comando que se encarga de crear una notificacion nueva para la empresa</t>
   </si>
   <si>
-    <t>Cuando se recibe la aprobacion de que la transacciones son exitosas se notifica que el pago se hizo</t>
-  </si>
-  <si>
-    <t>servicio</t>
-  </si>
-  <si>
-    <t>Notifiacion</t>
-  </si>
-  <si>
-    <t>Pol-Notificacion -005</t>
-  </si>
-  <si>
-    <t>No debe existir otra Notificacion, a excepcion de que sea la misma empresa que se esta modificando</t>
-  </si>
-  <si>
     <t>Los datos nuevos de Notificacion  deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango</t>
-  </si>
-  <si>
-    <t>Debe existir la Notificacion que se esta modificando </t>
   </si>
   <si>
     <t>Pol-Notificacion-006</t>
@@ -268,28 +226,10 @@
     <t xml:space="preserve">Notificacion </t>
   </si>
   <si>
-    <t>Administrador Institución</t>
-  </si>
-  <si>
     <t xml:space="preserve">Modificar Notificacion  </t>
   </si>
   <si>
     <t xml:space="preserve">Comando que se encarga de modificar una notificacion de ser necesaria, principalmente orientada a los servicios </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> El usuario debe estar permitido para consultar
- </t>
-  </si>
-  <si>
-    <t>Pol-Notificacion -008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si se envía parametros de consulta se deben de ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango
- </t>
-  </si>
-  <si>
-    <t>Pol-Notificacion
--004</t>
   </si>
   <si>
     <t>Notificacion
@@ -321,24 +261,10 @@
     <t>Eliminar  Notificacion</t>
   </si>
   <si>
-    <t xml:space="preserve">Que la Notificacion
-  exista y no tenga servicios asociados
- </t>
-  </si>
-  <si>
-    <t>Pol-Notificacion -007</t>
-  </si>
-  <si>
     <t>Comando que se encarga de eliminar las notificaciones de los servicios principalmente</t>
   </si>
   <si>
-    <t xml:space="preserve"> No se debe Modificar ninguna notificacion de pago</t>
-  </si>
-  <si>
     <t>Pol-Notificacion-003</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No se debe Eliminar ninguna notificacion de pago</t>
   </si>
   <si>
     <t>Pol-Notificacion-008</t>
@@ -359,22 +285,10 @@
     <t>Crear TipoNotificacion</t>
   </si>
   <si>
-    <t xml:space="preserve">No debe existir otra Notificacion con el mismo Nombre
- </t>
-  </si>
-  <si>
     <t>Pol-TipoNotificacion-001</t>
   </si>
   <si>
-    <t xml:space="preserve">Los datos del nuevo TipoNotificacion deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango
- </t>
-  </si>
-  <si>
     <t>Pol-TipoNotificacion-002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debe existir un numero de identificacion para ser creado
- </t>
   </si>
   <si>
     <t>Pol-TipoNotificacion-003</t>
@@ -391,22 +305,10 @@
     <t>Modificar TipoNotificacion</t>
   </si>
   <si>
-    <t xml:space="preserve"> No debe existir otroTipoNotificacion
-, a excepcion de que sea la misma empresa que se esta modificando
- </t>
-  </si>
-  <si>
     <t>Pol-TipoNotificacion-005</t>
   </si>
   <si>
-    <t>Pol-TipoNotificacion
--002</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Debe existir el TipoNotificacion que se esta modificando </t>
-  </si>
-  <si>
-    <t>Pol-TipoNotificacion -006</t>
   </si>
   <si>
     <t>TipoNotificacion
@@ -420,12 +322,6 @@
     <t>Consultar TipoNotificacion</t>
   </si>
   <si>
-    <t>Pol-TipoNotificacion -004</t>
-  </si>
-  <si>
-    <t>Pol-TipoNotificacion-008</t>
-  </si>
-  <si>
     <t>TipoNotificacion
 Modificado</t>
   </si>
@@ -438,22 +334,186 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Que el TipoNotificacion  exista y no tenga usuarios asociados
- </t>
-  </si>
-  <si>
-    <t>Pol-TipoNotificacion
--007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aprobación del Banco </t>
+    <t>Objeto de dominio que contiene la informacion de las notificaciones que emite el Spa</t>
+  </si>
+  <si>
+    <t>Notificaciones</t>
+  </si>
+  <si>
+    <t>ListaNotificacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objeto de dominio que contiene la informacion que relaciona las notificaciones a un cliente </t>
+  </si>
+  <si>
+    <t>TipoNotificación</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la información de los tipos de notificaciones que tiene el spa</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objeto de dominio que contiene la informacion de  los clientes </t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Notificacion Consultada</t>
+  </si>
+  <si>
+    <t>El usuario debe tener permisos para modificar una notificación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No se debe Modificar ninguna notificacion de factura</t>
+  </si>
+  <si>
+    <t>Pol-Notificacion-004</t>
+  </si>
+  <si>
+    <t>Pol-Notificacion-007</t>
+  </si>
+  <si>
+    <t>Debe existir la Notificacion  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No se debe Eliminar ninguna notificacion de factura</t>
+  </si>
+  <si>
+    <t>Comando que se encarga de crear los tipos de notificaciones que tiene el spa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los datos del nuevo TipoNotificacion deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango </t>
+  </si>
+  <si>
+    <t>Los datos del nuevo TipoNotificacion deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No debe existir otra Notificacion con el mismo identificador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los datos nuevos de Notificacion  deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si se envía parametros de consulta se deben de ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El usuario debe estar permitido para consultar</t>
+  </si>
+  <si>
+    <t>Pol-TipoNotificacion-004</t>
+  </si>
+  <si>
+    <t>Pol-TipoNotificacion-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No debe existir otro TipoNotificacion con el mismo Nombre </t>
+  </si>
+  <si>
+    <t>Que el TipoNotificacion  exista</t>
+  </si>
+  <si>
+    <t>Eliminar TipoNotificacion</t>
+  </si>
+  <si>
+    <t>Crear ListaNotificacion</t>
+  </si>
+  <si>
+    <t>Consultar ListaNotificacion</t>
+  </si>
+  <si>
+    <t>Pol-ListaNotificacion-001</t>
+  </si>
+  <si>
+    <t>Pol-ListaNotificacion-002</t>
+  </si>
+  <si>
+    <t>Pol-ListaNotificacion-003</t>
+  </si>
+  <si>
+    <t>Pol-ListaNotificacion-004</t>
+  </si>
+  <si>
+    <t>Pol-Notificacion-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No debe existir otra ListaNotificacion con el mismo identificador </t>
+  </si>
+  <si>
+    <t>ListaNotificacion Consultada</t>
+  </si>
+  <si>
+    <t>ListaNotificacion
+ Creada</t>
+  </si>
+  <si>
+    <t>ListaNotificacion
+Modificada</t>
+  </si>
+  <si>
+    <t>ListaNotificacion
+ Eliminada</t>
+  </si>
+  <si>
+    <t>ListaNotificacion
+Consultada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los datos nuevos de ListaNotificacion  deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango </t>
+  </si>
+  <si>
+    <t>Tipo Identificacion</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion base de los tipo de identificaion que tienen los clientes o el spa</t>
+  </si>
+  <si>
+    <t>Cliente Eliminado</t>
+  </si>
+  <si>
+    <t>cliente</t>
+  </si>
+  <si>
+    <t>Cliente Consultado</t>
+  </si>
+  <si>
+    <t>Eliminar Cliente</t>
+  </si>
+  <si>
+    <t>Modificar Cliente</t>
+  </si>
+  <si>
+    <t>Cliente Modificado</t>
+  </si>
+  <si>
+    <t>Cliente registrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultar Cliente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comando encargado de consultar los clientes que tiene el Spa </t>
+  </si>
+  <si>
+    <t>Pol-cliente-006</t>
+  </si>
+  <si>
+    <t>Si se envía parametros de consulta se deben de ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
+  </si>
+  <si>
+    <t>Pol-cliente-007</t>
+  </si>
+  <si>
+    <t>El usuario debe estar permitido para consultar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,11 +566,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,7 +581,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -629,6 +684,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -812,19 +873,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -861,6 +909,15 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -869,7 +926,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -902,24 +959,12 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -941,6 +986,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -953,6 +1004,9 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1001,126 +1055,276 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1161,21 +1365,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>343373</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38717</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>677220</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>105428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A33A83F-92E4-9ECC-3657-8FDDB6C8B626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C552118-AEF4-BE03-6AE4-750B2B9B1B9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,8 +1395,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="381000"/>
-          <a:ext cx="3391373" cy="4420217"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6773220" cy="4677428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1202,6 +1406,39 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Flujo de eventos en el tiempo"/>
+      <sheetName val="Listado Objetos de Dominio"/>
+      <sheetName val="Cliente"/>
+      <sheetName val="TipoIdentificacion"/>
+      <sheetName val="Genero"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Cliente</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>Objeto de dominio que contiene la informacion basica de los clientes del spa</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1504,7 +1741,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,106 +1765,106 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="D4" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="D5" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="60" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>50</v>
+      <c r="D7" s="21" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1636,39 +1873,40 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A4" location="'Objeto Dominio 1'!A1" display="Objeto Dominio 1" xr:uid="{78FD4B04-C4A6-4442-9F4A-8F86F773C6D4}"/>
-    <hyperlink ref="A5" location="'Objeto Dominio 2'!A1" display="Objeto Dominio 2" xr:uid="{02C9F19B-EE12-42DD-8827-5C5B317B717F}"/>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{A912A844-3F20-4CC7-93E9-B574028242F8}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{9A2FB048-0121-4CFB-A73C-DBE0818B4578}"/>
+    <hyperlink ref="A4" location="Notificación!A1" display="Notificacion" xr:uid="{938D26B8-C83A-431B-9062-7EE09914939C}"/>
+    <hyperlink ref="A5" location="ListaNotificacion!A1" display="ListaNotificacion" xr:uid="{A4315C10-642D-4FEF-A163-CF1829CFA959}"/>
+    <hyperlink ref="A6" location="TipoNotificación!A1" display="TipoNotificación" xr:uid="{C9CAD9AE-63F5-42AE-9F97-B828639FBC83}"/>
+    <hyperlink ref="A7" location="Cliente!A1" display="Cliente" xr:uid="{8E31E061-CC45-4432-AADD-D08560FAD4D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1679,143 +1917,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41" t="str">
-        <f>'Listado Objetos de Dominio'!$A$4</f>
+      <c r="B2" s="40" t="str">
+        <f>+'Listado Objetos de Dominio'!A4</f>
         <v>Notificacion</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43" t="str">
-        <f>'Listado Objetos de Dominio'!$B$4</f>
-        <v xml:space="preserve">Objeto de dominio que contiene todo lo relacionado con la notificacion de la empresa </v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="B3" s="42" t="str">
+        <f>+'Listado Objetos de Dominio'!B4</f>
+        <v>Objeto de dominio que contiene la informacion de las notificaciones que emite el Spa</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="36" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="39" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="34" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="37" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="15" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -1824,400 +2062,337 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="40"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="51"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="54"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="51"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="55"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="K10" s="60"/>
+      <c r="L10" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="67"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="52" t="s">
+      <c r="H12" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="M12" s="64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="67"/>
+    </row>
+    <row r="14" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="86"/>
+      <c r="J14" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="83"/>
+      <c r="L14" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="91"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="69" t="s">
+    </row>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="97"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="87" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="74"/>
+      <c r="J17" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="72"/>
+      <c r="L17" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="101"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="78"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="50"/>
-      <c r="L10" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="84" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="85"/>
-    </row>
-    <row r="12" spans="1:14" ht="36" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="84" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="85"/>
-    </row>
-    <row r="14" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="M18" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="67"/>
-      <c r="J14" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="50"/>
-      <c r="L14" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="68"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="50"/>
-      <c r="L17" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="68"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L23" s="76"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H24" s="76"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="75" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -2233,6 +2408,53 @@
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -2244,12 +2466,400 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1282503D-0C2C-47E1-966D-D4428392F412}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="40" t="str">
+        <f>+'Listado Objetos de Dominio'!A4</f>
+        <v>Notificacion</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="42" t="str">
+        <f>+'Listado Objetos de Dominio'!B4</f>
+        <v>Objeto de dominio que contiene la informacion de las notificaciones que emite el Spa</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="86"/>
+      <c r="J10" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="83"/>
+      <c r="L10" s="103" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" s="87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="91"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" s="87" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="97"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" s="87" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{76F3D054-6854-4474-A68D-16B7CBF9A5FD}"/>
+    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{C56155C3-4100-489A-A6AD-DD05A984F61A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2276,143 +2886,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41" t="str">
-        <f>'Listado Objetos de Dominio'!$A$5</f>
-        <v>TipoNotificacion</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="B2" s="40" t="str">
+        <f>+'Listado Objetos de Dominio'!A5</f>
+        <v>ListaNotificacion</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43" t="str">
-        <f>'Listado Objetos de Dominio'!$B$5</f>
-        <v xml:space="preserve">Objeto de dominio que contiene todo lo relacionado con el tipo de notificaciones que tiene el establecimiento </v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="B3" s="42" t="str">
+        <f>+'Listado Objetos de Dominio'!B5</f>
+        <v xml:space="preserve">Objeto de dominio que contiene la informacion que relaciona las notificaciones a un cliente </v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="36" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="39" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="34" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="37" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="15" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -2421,361 +3031,292 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="40"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="50" t="s">
+      <c r="A7" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="50"/>
-      <c r="L7" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="14" t="s">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="112"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="58" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" s="14" t="s">
+      <c r="I8" s="51"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="129" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="113" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="114" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="60"/>
+      <c r="L9" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="115" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="116"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="114" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="118" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="119"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="121"/>
+    </row>
+    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="83"/>
+      <c r="J12" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="83"/>
+      <c r="L12" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="87" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="89"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="87" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="124"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="125" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="71" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="K10" s="50"/>
-      <c r="L10" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="I15" s="72"/>
+      <c r="J15" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="72"/>
+      <c r="L15" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="127"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" s="81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="82"/>
-    </row>
-    <row r="13" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" s="50"/>
-      <c r="L13" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="M15" s="80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="K16" s="50"/>
-      <c r="L16" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>103</v>
+      <c r="M16" s="75" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M20" s="75"/>
+      <c r="A17" s="128"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="75" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -2791,6 +3332,48 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{79C12EC1-52AC-413E-AC64-706EBBEE7DDD}"/>
@@ -2801,10 +3384,340 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FE3D83-A68E-44D0-B056-191FAE081775}">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38" style="1" customWidth="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="40" t="str">
+        <f>'[1]Listado Objetos de Dominio'!$A$4</f>
+        <v>Cliente</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="42" t="str">
+        <f>'[1]Listado Objetos de Dominio'!$B$4</f>
+        <v>Objeto de dominio que contiene la informacion basica de los clientes del spa</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="1:14" s="131" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="130" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="82"/>
+      <c r="L7" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" s="90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="131" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" s="90"/>
+    </row>
+    <row r="9" spans="1:14" s="131" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="132"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="M9" s="133" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="131" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="124"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="134"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G13" s="22"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{EEBB59A5-22FF-4FF1-8A50-021B36500568}"/>
+    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{9833C314-66AE-40D4-A97F-D6B9B1841724}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2952,27 +3865,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2996,9 +3897,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SpaOnline/EventStorming/Notificacion - Event Storming.xlsx
+++ b/SpaOnline/EventStorming/Notificacion - Event Storming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9D24CD-F1E2-4809-8929-6C9C00AF34B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7758DD83-5C02-45E2-A9AE-09C7E8D0D8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="5" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="129">
   <si>
     <t>Descripción</t>
   </si>
@@ -470,25 +470,10 @@
     <t>Objeto de dominio que contiene la informacion base de los tipo de identificaion que tienen los clientes o el spa</t>
   </si>
   <si>
-    <t>Cliente Eliminado</t>
-  </si>
-  <si>
     <t>cliente</t>
   </si>
   <si>
     <t>Cliente Consultado</t>
-  </si>
-  <si>
-    <t>Eliminar Cliente</t>
-  </si>
-  <si>
-    <t>Modificar Cliente</t>
-  </si>
-  <si>
-    <t>Cliente Modificado</t>
-  </si>
-  <si>
-    <t>Cliente registrado</t>
   </si>
   <si>
     <t xml:space="preserve">Consultar Cliente </t>
@@ -992,331 +977,328 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1324,6 +1306,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1781,21 +1766,21 @@
       <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1812,10 +1797,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -1826,10 +1811,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="24" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -1840,10 +1825,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="24" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -1854,10 +1839,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="24" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -1888,9 +1873,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,84 +1902,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="str">
+      <c r="B2" s="69" t="str">
         <f>+'Listado Objetos de Dominio'!A4</f>
         <v>Notificacion</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="71" t="str">
         <f>+'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene la informacion de las notificaciones que emite el Spa</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -2004,52 +1989,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="33" t="s">
+      <c r="F5" s="73"/>
+      <c r="G5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -2062,39 +2047,39 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="47" t="s">
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="49" t="s">
+      <c r="I7" s="74"/>
+      <c r="J7" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="74" t="s">
         <v>86</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -2102,41 +2087,41 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="54"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="76"/>
       <c r="M8" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="104" t="s">
+      <c r="H9" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="59" t="s">
+      <c r="I9" s="76"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="28" t="s">
         <v>36</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -2144,253 +2129,301 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62" t="s">
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="105" t="s">
+      <c r="H10" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61" t="s">
+      <c r="I10" s="105"/>
+      <c r="J10" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="60"/>
-      <c r="L10" s="63" t="s">
+      <c r="K10" s="105"/>
+      <c r="L10" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="64" t="s">
+      <c r="M10" s="114" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="62" t="s">
+      <c r="A11" s="106"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="105" t="s">
+      <c r="H11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="67"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="115"/>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="62" t="s">
+      <c r="A12" s="106"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="105" t="s">
+      <c r="H12" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="63" t="s">
+      <c r="I12" s="106"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="64" t="s">
+      <c r="M12" s="114" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70" t="s">
+      <c r="A13" s="107"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="106" t="s">
+      <c r="H13" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="67"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="115"/>
     </row>
     <row r="14" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="85" t="s">
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="107" t="s">
+      <c r="H14" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="86"/>
-      <c r="J14" s="82" t="s">
+      <c r="I14" s="109"/>
+      <c r="J14" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="83"/>
-      <c r="L14" s="85" t="s">
+      <c r="K14" s="88"/>
+      <c r="L14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="87" t="s">
+      <c r="M14" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="89"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="83" t="s">
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="108" t="s">
+      <c r="H15" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="91"/>
-      <c r="J15" s="88"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="86"/>
       <c r="K15" s="89"/>
-      <c r="L15" s="85" t="s">
+      <c r="L15" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="87" t="s">
+      <c r="M15" s="35" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="85" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="M16" s="87" t="s">
+      <c r="M16" s="35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="98" t="s">
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="111" t="s">
+      <c r="H17" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="74"/>
-      <c r="J17" s="71" t="s">
+      <c r="I17" s="97"/>
+      <c r="J17" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="72"/>
-      <c r="L17" s="73" t="s">
+      <c r="K17" s="91"/>
+      <c r="L17" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="75" t="s">
+      <c r="M17" s="32" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="101"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="99" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="110" t="s">
+      <c r="H18" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="78"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="73" t="s">
+      <c r="I18" s="98"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="M18" s="75" t="s">
+      <c r="M18" s="32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="102"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="73" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="M19" s="75" t="s">
+      <c r="M19" s="32" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:N1"/>
@@ -2407,54 +2440,6 @@
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -2498,84 +2483,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="str">
+      <c r="B2" s="69" t="str">
         <f>+'Listado Objetos de Dominio'!A4</f>
         <v>Notificacion</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="71" t="str">
         <f>+'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene la informacion de las notificaciones que emite el Spa</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -2585,52 +2570,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="33" t="s">
+      <c r="F5" s="73"/>
+      <c r="G5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -2643,39 +2628,39 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="47" t="s">
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="49" t="s">
+      <c r="I7" s="74"/>
+      <c r="J7" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="49" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="80" t="s">
         <v>113</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -2683,41 +2668,41 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="55"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="82"/>
       <c r="M8" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="104" t="s">
+      <c r="H9" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="59" t="s">
+      <c r="I9" s="76"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="28" t="s">
         <v>114</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -2725,95 +2710,97 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="85" t="s">
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="86"/>
-      <c r="J10" s="82" t="s">
+      <c r="I10" s="109"/>
+      <c r="J10" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="K10" s="83"/>
-      <c r="L10" s="103" t="s">
+      <c r="K10" s="88"/>
+      <c r="L10" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="M10" s="87" t="s">
+      <c r="M10" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="89"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="83" t="s">
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="108" t="s">
+      <c r="H11" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="91"/>
-      <c r="J11" s="88"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="89"/>
-      <c r="L11" s="103" t="s">
+      <c r="L11" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="M11" s="87" t="s">
+      <c r="M11" s="35" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="97"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="103" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="M12" s="87" t="s">
+      <c r="M12" s="35" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="L7:L8"/>
@@ -2830,19 +2817,17 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="I10:I12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{76F3D054-6854-4474-A68D-16B7CBF9A5FD}"/>
@@ -2886,84 +2871,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="str">
+      <c r="B2" s="69" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>ListaNotificacion</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="71" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
         <v xml:space="preserve">Objeto de dominio que contiene la informacion que relaciona las notificaciones a un cliente </v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -2973,52 +2958,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="33" t="s">
+      <c r="F5" s="73"/>
+      <c r="G5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -3031,39 +3016,39 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="58" t="s">
+      <c r="H7" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="49" t="s">
+      <c r="I7" s="74"/>
+      <c r="J7" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="58" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="27" t="s">
         <v>60</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -3071,22 +3056,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="112"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="58" t="s">
+      <c r="H8" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="129" t="s">
+      <c r="I8" s="75"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="25" t="s">
         <v>61</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -3094,219 +3079,219 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60" t="s">
+      <c r="C9" s="105"/>
+      <c r="D9" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="62" t="s">
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="114" t="s">
+      <c r="H9" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61" t="s">
+      <c r="I9" s="105"/>
+      <c r="J9" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="60"/>
-      <c r="L9" s="114" t="s">
+      <c r="K9" s="105"/>
+      <c r="L9" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="115" t="s">
+      <c r="M9" s="45" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="116"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="114" t="s">
+      <c r="A10" s="123"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="114" t="s">
+      <c r="H10" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="117" t="s">
+      <c r="I10" s="106"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="118" t="s">
+      <c r="M10" s="127" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="119"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="62" t="s">
+      <c r="A11" s="124"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="114" t="s">
+      <c r="H11" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="121"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="128"/>
     </row>
     <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83" t="s">
+      <c r="C12" s="88"/>
+      <c r="D12" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="84" t="s">
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="83"/>
-      <c r="J12" s="82" t="s">
+      <c r="I12" s="88"/>
+      <c r="J12" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="83"/>
-      <c r="L12" s="85" t="s">
+      <c r="K12" s="88"/>
+      <c r="L12" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="87" t="s">
+      <c r="M12" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="88"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="89"/>
       <c r="D13" s="89"/>
       <c r="E13" s="89"/>
       <c r="F13" s="89"/>
-      <c r="G13" s="83" t="s">
+      <c r="G13" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="82" t="s">
+      <c r="H13" s="85" t="s">
         <v>99</v>
       </c>
       <c r="I13" s="89"/>
-      <c r="J13" s="88"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="89"/>
-      <c r="L13" s="85" t="s">
+      <c r="L13" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="M13" s="87" t="s">
+      <c r="M13" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="124"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="85" t="s">
+      <c r="A14" s="126"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="125" t="s">
+      <c r="M14" s="47" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="126" t="s">
+      <c r="A15" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72" t="s">
+      <c r="C15" s="91"/>
+      <c r="D15" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="71" t="s">
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="I15" s="72"/>
-      <c r="J15" s="71" t="s">
+      <c r="I15" s="91"/>
+      <c r="J15" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="72"/>
-      <c r="L15" s="73" t="s">
+      <c r="K15" s="91"/>
+      <c r="L15" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="M15" s="75" t="s">
+      <c r="M15" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="127"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="73" t="s">
+      <c r="A16" s="119"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="M16" s="75" t="s">
+      <c r="M16" s="32" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="128"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="73" t="s">
+      <c r="A17" s="120"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="M17" s="75" t="s">
+      <c r="M17" s="32" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3315,51 +3300,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="J15:J17"/>
@@ -3374,6 +3314,51 @@
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{79C12EC1-52AC-413E-AC64-706EBBEE7DDD}"/>
@@ -3388,8 +3373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FE3D83-A68E-44D0-B056-191FAE081775}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3416,84 +3401,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="str">
+      <c r="B2" s="69" t="str">
         <f>'[1]Listado Objetos de Dominio'!$A$4</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="71" t="str">
         <f>'[1]Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la informacion basica de los clientes del spa</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -3503,52 +3488,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="33" t="s">
+      <c r="F5" s="73"/>
+      <c r="G5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -3561,105 +3546,95 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
-    </row>
-    <row r="7" spans="1:14" s="131" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="130" t="s">
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
+    </row>
+    <row r="7" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="85"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="134"/>
+    </row>
+    <row r="8" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="125" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="134"/>
+    </row>
+    <row r="9" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="131"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="K7" s="82"/>
-      <c r="L7" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="M7" s="90" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="131" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="103" t="s">
-        <v>121</v>
-      </c>
-      <c r="M8" s="90"/>
-    </row>
-    <row r="9" spans="1:14" s="131" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="132"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="H9" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="M9" s="133" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="124"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="134"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="132"/>
+    </row>
+    <row r="10" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="126"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="133"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G13" s="22"/>
@@ -3669,6 +3644,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="J7:J10"/>
     <mergeCell ref="K7:K10"/>
@@ -3685,23 +3677,6 @@
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{EEBB59A5-22FF-4FF1-8A50-021B36500568}"/>
@@ -3712,15 +3687,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -3864,6 +3830,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3871,14 +3846,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A52D198E-1C75-45AD-8A7E-B98F5C4409CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3892,6 +3859,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SpaOnline/EventStorming/Notificacion - Event Storming.xlsx
+++ b/SpaOnline/EventStorming/Notificacion - Event Storming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7758DD83-5C02-45E2-A9AE-09C7E8D0D8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB774716-E08B-473F-946B-646790E0822F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="132">
   <si>
     <t>Descripción</t>
   </si>
@@ -492,6 +492,15 @@
   </si>
   <si>
     <t>El usuario debe estar permitido para consultar</t>
+  </si>
+  <si>
+    <t>Comando que se encarga de modificar los tipo de notificacion que tiene el spa</t>
+  </si>
+  <si>
+    <t>Comando que se encarga de consultar los tipo de notificacion que tiene el spa</t>
+  </si>
+  <si>
+    <t>Comando que se encarga de eliminar los tipo de notificacion que tiene el spa</t>
   </si>
 </sst>
 </file>
@@ -1068,6 +1077,141 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1125,140 +1269,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1287,17 +1308,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1306,9 +1318,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1725,7 +1734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -1873,7 +1882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7:M19"/>
     </sheetView>
@@ -1902,84 +1911,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="69" t="str">
+      <c r="B2" s="114" t="str">
         <f>+'Listado Objetos de Dominio'!A4</f>
         <v>Notificacion</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="115"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="71" t="str">
+      <c r="B3" s="116" t="str">
         <f>+'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene la informacion de las notificaciones que emite el Spa</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="117"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="106"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="64" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="64"/>
+      <c r="H4" s="109"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1989,52 +1998,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="67" t="s">
+      <c r="L4" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="68" t="s">
+      <c r="M4" s="113" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="62" t="s">
+      <c r="F5" s="95"/>
+      <c r="G5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="65" t="s">
+      <c r="H5" s="107"/>
+      <c r="I5" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="67"/>
-      <c r="M5" s="68"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="113"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="84"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -2047,39 +2056,39 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="68"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
     </row>
     <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="74" t="s">
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="80" t="s">
+      <c r="I7" s="56"/>
+      <c r="J7" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74" t="s">
+      <c r="K7" s="56"/>
+      <c r="L7" s="56" t="s">
         <v>86</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -2087,18 +2096,18 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="76"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="57"/>
       <c r="M8" s="3" t="s">
         <v>55</v>
       </c>
@@ -2107,20 +2116,20 @@
       <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="76"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="76"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="57"/>
       <c r="L9" s="28" t="s">
         <v>36</v>
       </c>
@@ -2129,125 +2138,125 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="29" t="s">
         <v>111</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="105"/>
-      <c r="J10" s="102" t="s">
+      <c r="I10" s="66"/>
+      <c r="J10" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="105"/>
-      <c r="L10" s="108" t="s">
+      <c r="K10" s="66"/>
+      <c r="L10" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="114" t="s">
+      <c r="M10" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="29" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="106"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="115"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="29" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="106"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="108" t="s">
+      <c r="I12" s="67"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="114" t="s">
+      <c r="M12" s="54" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="107"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="30" t="s">
         <v>57</v>
       </c>
       <c r="H13" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="107"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="115"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="34" t="s">
         <v>89</v>
       </c>
       <c r="H14" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="109"/>
-      <c r="J14" s="85" t="s">
+      <c r="I14" s="82"/>
+      <c r="J14" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="88"/>
+      <c r="K14" s="76"/>
       <c r="L14" s="34" t="s">
         <v>36</v>
       </c>
@@ -2256,23 +2265,23 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="88" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="112" t="s">
+      <c r="H15" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="110"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="89"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="77"/>
       <c r="L15" s="34" t="s">
         <v>49</v>
       </c>
@@ -2281,17 +2290,17 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="90"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="78"/>
       <c r="L16" s="34" t="s">
         <v>50</v>
       </c>
@@ -2300,31 +2309,31 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="38" t="s">
         <v>41</v>
       </c>
       <c r="H17" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="97"/>
-      <c r="J17" s="94" t="s">
+      <c r="I17" s="90"/>
+      <c r="J17" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="91"/>
+      <c r="K17" s="87"/>
       <c r="L17" s="31" t="s">
         <v>36</v>
       </c>
@@ -2333,21 +2342,21 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="100" t="s">
+      <c r="A18" s="102"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="101" t="s">
+      <c r="H18" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="98"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="92"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="88"/>
       <c r="L18" s="31" t="s">
         <v>53</v>
       </c>
@@ -2356,17 +2365,17 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="93"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="89"/>
       <c r="L19" s="31" t="s">
         <v>49</v>
       </c>
@@ -2376,6 +2385,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="H7:H8"/>
@@ -2392,54 +2449,6 @@
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -2483,84 +2492,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="69" t="str">
+      <c r="B2" s="114" t="str">
         <f>+'Listado Objetos de Dominio'!A4</f>
         <v>Notificacion</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="115"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="71" t="str">
+      <c r="B3" s="116" t="str">
         <f>+'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene la informacion de las notificaciones que emite el Spa</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="117"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="106"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="64" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="64"/>
+      <c r="H4" s="109"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -2570,52 +2579,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="67" t="s">
+      <c r="L4" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="68" t="s">
+      <c r="M4" s="113" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="62" t="s">
+      <c r="F5" s="95"/>
+      <c r="G5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="65" t="s">
+      <c r="H5" s="107"/>
+      <c r="I5" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="67"/>
-      <c r="M5" s="68"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="113"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="84"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -2628,39 +2637,39 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="68"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
     </row>
     <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="74" t="s">
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="80" t="s">
+      <c r="I7" s="56"/>
+      <c r="J7" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="80" t="s">
+      <c r="K7" s="56"/>
+      <c r="L7" s="63" t="s">
         <v>113</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -2668,18 +2677,18 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="82"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="65"/>
       <c r="M8" s="3" t="s">
         <v>55</v>
       </c>
@@ -2688,20 +2697,20 @@
       <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="16" t="s">
         <v>108</v>
       </c>
       <c r="H9" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="76"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="76"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="57"/>
       <c r="L9" s="28" t="s">
         <v>114</v>
       </c>
@@ -2713,28 +2722,28 @@
       <c r="A10" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="34" t="s">
         <v>109</v>
       </c>
       <c r="H10" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="109"/>
-      <c r="J10" s="85" t="s">
+      <c r="I10" s="82"/>
+      <c r="J10" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="K10" s="88"/>
+      <c r="K10" s="76"/>
       <c r="L10" s="36" t="s">
         <v>114</v>
       </c>
@@ -2743,23 +2752,23 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="88" t="s">
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="112" t="s">
+      <c r="H11" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="110"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="89"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="77"/>
       <c r="L11" s="36" t="s">
         <v>115</v>
       </c>
@@ -2768,17 +2777,17 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="90"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="78"/>
       <c r="L12" s="36" t="s">
         <v>116</v>
       </c>
@@ -2788,19 +2797,17 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="I10:I12"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="L7:L8"/>
@@ -2817,17 +2824,19 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{76F3D054-6854-4474-A68D-16B7CBF9A5FD}"/>
@@ -2842,9 +2851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7:I8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2871,84 +2880,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="69" t="str">
+      <c r="B2" s="114" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>ListaNotificacion</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="115"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="71" t="str">
+      <c r="B3" s="116" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
         <v xml:space="preserve">Objeto de dominio que contiene la informacion que relaciona las notificaciones a un cliente </v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="117"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="106"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="64" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="64"/>
+      <c r="H4" s="109"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -2958,52 +2967,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="67" t="s">
+      <c r="L4" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="68" t="s">
+      <c r="M4" s="113" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="62" t="s">
+      <c r="F5" s="95"/>
+      <c r="G5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="65" t="s">
+      <c r="H5" s="107"/>
+      <c r="I5" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="67"/>
-      <c r="M5" s="68"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="113"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="84"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -3016,38 +3025,38 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="68"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
     </row>
     <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="16" t="s">
         <v>63</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="80" t="s">
+      <c r="I7" s="56"/>
+      <c r="J7" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="74"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="27" t="s">
         <v>60</v>
       </c>
@@ -3056,21 +3065,21 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="121"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="16" t="s">
         <v>64</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="75"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="62"/>
       <c r="L8" s="25" t="s">
         <v>61</v>
       </c>
@@ -3079,29 +3088,31 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105" t="s">
+      <c r="C9" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H9" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="105"/>
-      <c r="J9" s="102" t="s">
+      <c r="I9" s="66"/>
+      <c r="J9" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="105"/>
+      <c r="K9" s="66"/>
       <c r="L9" s="44" t="s">
         <v>67</v>
       </c>
@@ -3110,71 +3121,73 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="123"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="44" t="s">
         <v>64</v>
       </c>
       <c r="H10" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="106"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="129" t="s">
+      <c r="I10" s="67"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="127" t="s">
+      <c r="M10" s="118" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="124"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
+      <c r="A11" s="128"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="29" t="s">
         <v>100</v>
       </c>
       <c r="H11" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="107"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="128"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="119"/>
     </row>
     <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88" t="s">
+      <c r="C12" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
       <c r="G12" s="33" t="s">
         <v>65</v>
       </c>
       <c r="H12" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="88"/>
-      <c r="J12" s="85" t="s">
+      <c r="I12" s="76"/>
+      <c r="J12" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="88"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="34" t="s">
         <v>59</v>
       </c>
@@ -3183,23 +3196,23 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="88" t="s">
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="85" t="s">
+      <c r="H13" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="89"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="89"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="77"/>
       <c r="L13" s="34" t="s">
         <v>71</v>
       </c>
@@ -3208,17 +3221,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="126"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="90"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="78"/>
       <c r="L14" s="34" t="s">
         <v>72</v>
       </c>
@@ -3227,29 +3240,31 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91" t="s">
+      <c r="C15" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="94" t="s">
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="94" t="s">
+      <c r="H15" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="I15" s="91"/>
-      <c r="J15" s="94" t="s">
+      <c r="I15" s="87"/>
+      <c r="J15" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="91"/>
+      <c r="K15" s="87"/>
       <c r="L15" s="31" t="s">
         <v>59</v>
       </c>
@@ -3258,17 +3273,17 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="119"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="92"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="88"/>
       <c r="L16" s="31" t="s">
         <v>61</v>
       </c>
@@ -3277,17 +3292,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="120"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="93"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="89"/>
       <c r="L17" s="31" t="s">
         <v>74</v>
       </c>
@@ -3300,6 +3315,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="J15:J17"/>
@@ -3316,49 +3374,6 @@
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K9:K11"/>
     <mergeCell ref="L10:L11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{79C12EC1-52AC-413E-AC64-706EBBEE7DDD}"/>
@@ -3401,84 +3416,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="69" t="str">
+      <c r="B2" s="114" t="str">
         <f>'[1]Listado Objetos de Dominio'!$A$4</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="115"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="71" t="str">
+      <c r="B3" s="116" t="str">
         <f>'[1]Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la informacion basica de los clientes del spa</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="117"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="106"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="64" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="64"/>
+      <c r="H4" s="109"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -3488,52 +3503,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="67" t="s">
+      <c r="L4" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="68" t="s">
+      <c r="M4" s="113" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="62" t="s">
+      <c r="F5" s="95"/>
+      <c r="G5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="65" t="s">
+      <c r="H5" s="107"/>
+      <c r="I5" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="67"/>
-      <c r="M5" s="68"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="113"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="84"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -3546,95 +3561,95 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="68"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
     </row>
     <row r="7" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85" t="s">
+      <c r="I7" s="79"/>
+      <c r="J7" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="85"/>
+      <c r="K7" s="79"/>
       <c r="L7" s="36"/>
-      <c r="M7" s="134"/>
+      <c r="M7" s="131"/>
     </row>
     <row r="8" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
       <c r="L8" s="36"/>
-      <c r="M8" s="134"/>
+      <c r="M8" s="131"/>
     </row>
     <row r="9" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="131"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="85" t="s">
+      <c r="A9" s="132"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="132"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="133"/>
     </row>
     <row r="10" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="126"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="133"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="134"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G13" s="22"/>
@@ -3644,6 +3659,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="M7:M8"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -3660,23 +3692,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{EEBB59A5-22FF-4FF1-8A50-021B36500568}"/>
@@ -3687,6 +3702,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -3830,22 +3860,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A52D198E-1C75-45AD-8A7E-B98F5C4409CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3863,31 +3903,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{86cab09b-e61a-4c01-96e7-67fc9e3d8cd5}" enabled="1" method="Standard" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="8" removed="0"/>

--- a/SpaOnline/EventStorming/Notificacion - Event Storming.xlsx
+++ b/SpaOnline/EventStorming/Notificacion - Event Storming.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\EventStorming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB774716-E08B-473F-946B-646790E0822F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DCDDE3-2996-4EC6-AB59-363C2D2B6CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -1077,197 +1077,224 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1281,36 +1308,6 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1318,6 +1315,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1882,9 +1882,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:M19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,84 +1911,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="114" t="str">
+      <c r="B2" s="69" t="str">
         <f>+'Listado Objetos de Dominio'!A4</f>
         <v>Notificacion</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="115"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="116" t="str">
+      <c r="B3" s="71" t="str">
         <f>+'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene la informacion de las notificaciones que emite el Spa</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="117"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="106"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="109" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="109"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1998,52 +1998,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="112" t="s">
+      <c r="L4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="113" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="107" t="s">
+      <c r="F5" s="73"/>
+      <c r="G5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="110" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="108" t="s">
+      <c r="K5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="112"/>
-      <c r="M5" s="113"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="98"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -2056,39 +2056,39 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="113"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="56" t="s">
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="58" t="s">
+      <c r="H7" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="74"/>
+      <c r="J7" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="74" t="s">
         <v>86</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -2096,18 +2096,18 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="57"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="76"/>
       <c r="M8" s="3" t="s">
         <v>55</v>
       </c>
@@ -2116,20 +2116,20 @@
       <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="57"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="76"/>
       <c r="L9" s="28" t="s">
         <v>36</v>
       </c>
@@ -2138,125 +2138,125 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
       <c r="G10" s="29" t="s">
         <v>111</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="66"/>
-      <c r="J10" s="69" t="s">
+      <c r="I10" s="105"/>
+      <c r="J10" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="66"/>
-      <c r="L10" s="72" t="s">
+      <c r="K10" s="105"/>
+      <c r="L10" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="54" t="s">
+      <c r="M10" s="114" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
       <c r="G11" s="29" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="55"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="115"/>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
       <c r="G12" s="29" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="67"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="72" t="s">
+      <c r="I12" s="106"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="54" t="s">
+      <c r="M12" s="114" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="30" t="s">
         <v>57</v>
       </c>
       <c r="H13" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="68"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="55"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="115"/>
     </row>
     <row r="14" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="34" t="s">
         <v>89</v>
       </c>
       <c r="H14" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="82"/>
-      <c r="J14" s="79" t="s">
+      <c r="I14" s="109"/>
+      <c r="J14" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="76"/>
+      <c r="K14" s="88"/>
       <c r="L14" s="34" t="s">
         <v>36</v>
       </c>
@@ -2265,23 +2265,23 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="76" t="s">
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="85" t="s">
+      <c r="H15" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="83"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="77"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="89"/>
       <c r="L15" s="34" t="s">
         <v>49</v>
       </c>
@@ -2290,17 +2290,17 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="100"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="78"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="90"/>
       <c r="L16" s="34" t="s">
         <v>50</v>
       </c>
@@ -2309,31 +2309,31 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
       <c r="G17" s="38" t="s">
         <v>41</v>
       </c>
       <c r="H17" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="90"/>
-      <c r="J17" s="73" t="s">
+      <c r="I17" s="97"/>
+      <c r="J17" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="87"/>
+      <c r="K17" s="91"/>
       <c r="L17" s="31" t="s">
         <v>36</v>
       </c>
@@ -2342,21 +2342,21 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="102"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="93" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="94" t="s">
+      <c r="H18" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="91"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="88"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="92"/>
       <c r="L18" s="31" t="s">
         <v>53</v>
       </c>
@@ -2365,17 +2365,17 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="103"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="89"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="93"/>
       <c r="L19" s="31" t="s">
         <v>49</v>
       </c>
@@ -2385,6 +2385,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:N1"/>
@@ -2401,54 +2449,6 @@
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="I10:I13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -2465,7 +2465,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2492,84 +2492,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="114" t="str">
+      <c r="B2" s="69" t="str">
         <f>+'Listado Objetos de Dominio'!A4</f>
         <v>Notificacion</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="115"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="116" t="str">
+      <c r="B3" s="71" t="str">
         <f>+'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene la informacion de las notificaciones que emite el Spa</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="117"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="106"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="109" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="109"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -2579,52 +2579,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="112" t="s">
+      <c r="L4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="113" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="107" t="s">
+      <c r="F5" s="73"/>
+      <c r="G5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="110" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="108" t="s">
+      <c r="K5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="112"/>
-      <c r="M5" s="113"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="98"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -2637,39 +2637,39 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="113"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="56" t="s">
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="58" t="s">
+      <c r="H7" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="74"/>
+      <c r="J7" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="63" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="80" t="s">
         <v>113</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -2677,18 +2677,18 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="65"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="82"/>
       <c r="M8" s="3" t="s">
         <v>55</v>
       </c>
@@ -2697,20 +2697,20 @@
       <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="16" t="s">
         <v>108</v>
       </c>
       <c r="H9" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="57"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="76"/>
       <c r="L9" s="28" t="s">
         <v>114</v>
       </c>
@@ -2722,28 +2722,28 @@
       <c r="A10" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="34" t="s">
         <v>109</v>
       </c>
       <c r="H10" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="82"/>
-      <c r="J10" s="79" t="s">
+      <c r="I10" s="109"/>
+      <c r="J10" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="K10" s="76"/>
+      <c r="K10" s="88"/>
       <c r="L10" s="36" t="s">
         <v>114</v>
       </c>
@@ -2752,23 +2752,23 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="76" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="85" t="s">
+      <c r="H11" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="83"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="77"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="89"/>
       <c r="L11" s="36" t="s">
         <v>115</v>
       </c>
@@ -2777,17 +2777,17 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="100"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="78"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="90"/>
       <c r="L12" s="36" t="s">
         <v>116</v>
       </c>
@@ -2797,17 +2797,19 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="L7:L8"/>
@@ -2824,19 +2826,17 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="I10:I12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{76F3D054-6854-4474-A68D-16B7CBF9A5FD}"/>
@@ -2851,9 +2851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9:D11"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,84 +2880,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="114" t="str">
+      <c r="B2" s="69" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>ListaNotificacion</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="115"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="116" t="str">
+      <c r="B3" s="71" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
         <v xml:space="preserve">Objeto de dominio que contiene la informacion que relaciona las notificaciones a un cliente </v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="117"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="106"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="109" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="109"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -2967,52 +2967,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="112" t="s">
+      <c r="L4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="113" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="107" t="s">
+      <c r="F5" s="73"/>
+      <c r="G5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="110" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="108" t="s">
+      <c r="K5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="112"/>
-      <c r="M5" s="113"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="98"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -3025,38 +3025,38 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="113"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="16" t="s">
         <v>63</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="74"/>
+      <c r="J7" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="56"/>
+      <c r="K7" s="74"/>
       <c r="L7" s="27" t="s">
         <v>60</v>
       </c>
@@ -3065,21 +3065,21 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="16" t="s">
         <v>64</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="62"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="75"/>
       <c r="L8" s="25" t="s">
         <v>61</v>
       </c>
@@ -3088,31 +3088,31 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
       <c r="G9" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H9" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="69" t="s">
+      <c r="I9" s="105"/>
+      <c r="J9" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="66"/>
+      <c r="K9" s="105"/>
       <c r="L9" s="44" t="s">
         <v>67</v>
       </c>
@@ -3121,73 +3121,73 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="127"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
       <c r="G10" s="44" t="s">
         <v>64</v>
       </c>
       <c r="H10" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="120" t="s">
+      <c r="I10" s="106"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="118" t="s">
+      <c r="M10" s="127" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="128"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
       <c r="G11" s="29" t="s">
         <v>100</v>
       </c>
       <c r="H11" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="68"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="119"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="128"/>
     </row>
     <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="33" t="s">
         <v>65</v>
       </c>
       <c r="H12" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="76"/>
-      <c r="J12" s="79" t="s">
+      <c r="I12" s="88"/>
+      <c r="J12" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="76"/>
+      <c r="K12" s="88"/>
       <c r="L12" s="34" t="s">
         <v>59</v>
       </c>
@@ -3196,23 +3196,23 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="76" t="s">
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="79" t="s">
+      <c r="H13" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="77"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="77"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="89"/>
       <c r="L13" s="34" t="s">
         <v>71</v>
       </c>
@@ -3221,17 +3221,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="78"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="90"/>
       <c r="L14" s="34" t="s">
         <v>72</v>
       </c>
@@ -3240,31 +3240,31 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="73" t="s">
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="73" t="s">
+      <c r="H15" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="73" t="s">
+      <c r="I15" s="91"/>
+      <c r="J15" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="87"/>
+      <c r="K15" s="91"/>
       <c r="L15" s="31" t="s">
         <v>59</v>
       </c>
@@ -3273,17 +3273,17 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="123"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="88"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="92"/>
       <c r="L16" s="31" t="s">
         <v>61</v>
       </c>
@@ -3292,17 +3292,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="124"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="89"/>
+      <c r="A17" s="120"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="93"/>
       <c r="L17" s="31" t="s">
         <v>74</v>
       </c>
@@ -3315,49 +3315,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="J15:J17"/>
@@ -3374,6 +3331,49 @@
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K9:K11"/>
     <mergeCell ref="L10:L11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{79C12EC1-52AC-413E-AC64-706EBBEE7DDD}"/>
@@ -3416,84 +3416,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="114" t="str">
+      <c r="B2" s="69" t="str">
         <f>'[1]Listado Objetos de Dominio'!$A$4</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="115"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="116" t="str">
+      <c r="B3" s="71" t="str">
         <f>'[1]Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la informacion basica de los clientes del spa</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="117"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="106"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="109" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="109"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -3503,52 +3503,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="112" t="s">
+      <c r="L4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="113" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="107" t="s">
+      <c r="F5" s="73"/>
+      <c r="G5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="110" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="108" t="s">
+      <c r="K5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="112"/>
-      <c r="M5" s="113"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="98"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -3561,95 +3561,95 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="113"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79" t="s">
+      <c r="I7" s="85"/>
+      <c r="J7" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="79"/>
+      <c r="K7" s="85"/>
       <c r="L7" s="36"/>
-      <c r="M7" s="131"/>
+      <c r="M7" s="134"/>
     </row>
     <row r="8" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
       <c r="L8" s="36"/>
-      <c r="M8" s="131"/>
+      <c r="M8" s="134"/>
     </row>
     <row r="9" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="132"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="79" t="s">
+      <c r="A9" s="131"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="133"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="132"/>
     </row>
     <row r="10" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="134"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="133"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G13" s="22"/>
@@ -3659,23 +3659,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="M7:M8"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -3692,6 +3675,23 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{EEBB59A5-22FF-4FF1-8A50-021B36500568}"/>
@@ -3702,21 +3702,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -3860,32 +3845,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A52D198E-1C75-45AD-8A7E-B98F5C4409CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3903,6 +3878,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{86cab09b-e61a-4c01-96e7-67fc9e3d8cd5}" enabled="1" method="Standard" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="8" removed="0"/>
